--- a/Code/Results/Cases/Case_3_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.903772272782305</v>
+        <v>1.446407857441102</v>
       </c>
       <c r="C2">
-        <v>0.09072655747689851</v>
+        <v>0.04875525018707094</v>
       </c>
       <c r="D2">
-        <v>0.06998619140553686</v>
+        <v>0.1248802924412242</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.935502739672884</v>
+        <v>2.319677052181873</v>
       </c>
       <c r="G2">
-        <v>0.000829817920005576</v>
+        <v>0.002555383951192388</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.565314726397304</v>
+        <v>0.9248430034724322</v>
       </c>
       <c r="L2">
-        <v>0.3936661434605639</v>
+        <v>0.3072403409413056</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.038298899279113</v>
+        <v>3.149778894070607</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669633462076462</v>
+        <v>1.393681655594889</v>
       </c>
       <c r="C3">
-        <v>0.08113413464970876</v>
+        <v>0.04570271063329301</v>
       </c>
       <c r="D3">
-        <v>0.07212408389981473</v>
+        <v>0.1252569564732422</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.799540279692266</v>
+        <v>2.292421660901397</v>
       </c>
       <c r="G3">
-        <v>0.0008368758699666451</v>
+        <v>0.002559777865054426</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.360866426986831</v>
+        <v>0.8758793560311631</v>
       </c>
       <c r="L3">
-        <v>0.3468505995449362</v>
+        <v>0.2967189422946461</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.031469211375011</v>
+        <v>3.150523909750476</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.52844443833186</v>
+        <v>1.3621963007528</v>
       </c>
       <c r="C4">
-        <v>0.07528322356571948</v>
+        <v>0.04380598120572898</v>
       </c>
       <c r="D4">
-        <v>0.07345473024046179</v>
+        <v>0.1254937250592345</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.719071698699537</v>
+        <v>2.276716048482683</v>
       </c>
       <c r="G4">
-        <v>0.0008413349697609496</v>
+        <v>0.002562618322567956</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.237344127532822</v>
+        <v>0.8463997843549862</v>
       </c>
       <c r="L4">
-        <v>0.3186845222084571</v>
+        <v>0.2904453072818853</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.029352111425382</v>
+        <v>3.15169223227474</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.471486080564432</v>
+        <v>1.349588914503272</v>
       </c>
       <c r="C5">
-        <v>0.07290592834659293</v>
+        <v>0.04302734922904961</v>
       </c>
       <c r="D5">
-        <v>0.07400153516540708</v>
+        <v>0.1255915916881003</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.686977228689955</v>
+        <v>2.27057424750241</v>
       </c>
       <c r="G5">
-        <v>0.0008431847246417965</v>
+        <v>0.002563811801801901</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.187453017312066</v>
+        <v>0.8345331405825505</v>
       </c>
       <c r="L5">
-        <v>0.3073369673972053</v>
+        <v>0.2879355311150675</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.028983330931439</v>
+        <v>3.152346779376458</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.462061113125742</v>
+        <v>1.347508936042573</v>
       </c>
       <c r="C6">
-        <v>0.07251152584747445</v>
+        <v>0.04289771223904637</v>
       </c>
       <c r="D6">
-        <v>0.07409260811302154</v>
+        <v>0.1256079257999758</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.681688384598971</v>
+        <v>2.269569997272086</v>
       </c>
       <c r="G6">
-        <v>0.000843493876453088</v>
+        <v>0.002564012154224744</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.179193850931682</v>
+        <v>0.8325715312619195</v>
       </c>
       <c r="L6">
-        <v>0.3054601632110518</v>
+        <v>0.2875216064793875</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.028951144595638</v>
+        <v>3.152466235131286</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.527674029000707</v>
+        <v>1.362025370034075</v>
       </c>
       <c r="C7">
-        <v>0.07525113770957859</v>
+        <v>0.04379550344730632</v>
       </c>
       <c r="D7">
-        <v>0.0734620861411619</v>
+        <v>0.1254950393298255</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.718636115603502</v>
+        <v>2.276632172527343</v>
       </c>
       <c r="G7">
-        <v>0.0008413597826258817</v>
+        <v>0.002562634272524848</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.23666955220142</v>
+        <v>0.8462391539221983</v>
       </c>
       <c r="L7">
-        <v>0.318530976648475</v>
+        <v>0.2904112703134132</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.029345173627036</v>
+        <v>3.151700337636854</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.822463527662705</v>
+        <v>1.428043181316554</v>
       </c>
       <c r="C8">
-        <v>0.08740927900193896</v>
+        <v>0.04770736349097859</v>
       </c>
       <c r="D8">
-        <v>0.07071962602947135</v>
+        <v>0.1250090254620337</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.887959719051722</v>
+        <v>2.310065465743264</v>
       </c>
       <c r="G8">
-        <v>0.0008322261289326775</v>
+        <v>0.002556869451732701</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.494366178668827</v>
+        <v>0.9078388002073439</v>
       </c>
       <c r="L8">
-        <v>0.3773944916179488</v>
+        <v>0.3035737637162867</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.035495457813369</v>
+        <v>3.149888041283745</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.424409221893768</v>
+        <v>1.564579758614514</v>
       </c>
       <c r="C9">
-        <v>0.11169806238955</v>
+        <v>0.05520296890088616</v>
       </c>
       <c r="D9">
-        <v>0.06548305020793865</v>
+        <v>0.1240995486631338</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.246893861369443</v>
+        <v>2.383822121437589</v>
       </c>
       <c r="G9">
-        <v>0.0008152578605576395</v>
+        <v>0.002546690563854503</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.018631274527252</v>
+        <v>1.033297824626231</v>
       </c>
       <c r="L9">
-        <v>0.4981694984253835</v>
+        <v>0.3308730733397738</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.065418900913187</v>
+        <v>3.151990310222658</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.88651205569721</v>
+        <v>1.66925326720542</v>
       </c>
       <c r="C10">
-        <v>0.1300298943522193</v>
+        <v>0.06060708034839024</v>
       </c>
       <c r="D10">
-        <v>0.06172116273623907</v>
+        <v>0.1234578875293941</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.531582540577048</v>
+        <v>2.443052514138344</v>
       </c>
       <c r="G10">
-        <v>0.0008032853933340691</v>
+        <v>0.002539890986359187</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.419928123776884</v>
+        <v>1.128362118645725</v>
       </c>
       <c r="L10">
-        <v>0.5913145073743493</v>
+        <v>0.3518498333712472</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.100425069334534</v>
+        <v>3.157007100923181</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.102376597973887</v>
+        <v>1.717829692625628</v>
       </c>
       <c r="C11">
-        <v>0.1385297601835447</v>
+        <v>0.06304411620199346</v>
       </c>
       <c r="D11">
-        <v>0.06002859867411026</v>
+        <v>0.1231717322876413</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.666801981241719</v>
+        <v>2.471103236394839</v>
       </c>
       <c r="G11">
-        <v>0.0007979261108136079</v>
+        <v>0.002536943482880707</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.607140112414498</v>
+        <v>1.172247760886194</v>
       </c>
       <c r="L11">
-        <v>0.634935766395472</v>
+        <v>0.3615954565542978</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.119715349608498</v>
+        <v>3.160048765877434</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.185056071864324</v>
+        <v>1.736362993197474</v>
       </c>
       <c r="C12">
-        <v>0.1417766981429907</v>
+        <v>0.06396395630953577</v>
       </c>
       <c r="D12">
-        <v>0.05939043317549775</v>
+        <v>0.1230641989681853</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.718935684579691</v>
+        <v>2.481885131951628</v>
       </c>
       <c r="G12">
-        <v>0.0007959073583296261</v>
+        <v>0.002535848163094223</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.678810361700556</v>
+        <v>1.188958874148682</v>
       </c>
       <c r="L12">
-        <v>0.651660677872286</v>
+        <v>0.3653152811983631</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.127554937966949</v>
+        <v>3.161310191307933</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.167205811696192</v>
+        <v>1.732365350225109</v>
       </c>
       <c r="C13">
-        <v>0.1410760684105981</v>
+        <v>0.06376598540882128</v>
       </c>
       <c r="D13">
-        <v>0.05952774862766574</v>
+        <v>0.1230873213557135</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.707664598125916</v>
+        <v>2.479555945977154</v>
       </c>
       <c r="G13">
-        <v>0.0007963416883731578</v>
+        <v>0.002536083134889926</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.663338494068086</v>
+        <v>1.185355711919414</v>
       </c>
       <c r="L13">
-        <v>0.6480490254815408</v>
+        <v>0.3645128418089172</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.125841886641695</v>
+        <v>3.161033639312137</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.109159167119572</v>
+        <v>1.719351660932602</v>
       </c>
       <c r="C14">
-        <v>0.1387962905092053</v>
+        <v>0.06311985206622239</v>
       </c>
       <c r="D14">
-        <v>0.05997604028888759</v>
+        <v>0.1231628688606907</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.671071774340106</v>
+        <v>2.471987065535018</v>
       </c>
       <c r="G14">
-        <v>0.0007977598236814775</v>
+        <v>0.002536852953155305</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.613020236011749</v>
+        <v>1.173620736135291</v>
       </c>
       <c r="L14">
-        <v>0.6363074320887137</v>
+        <v>0.3619008993056951</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.12034928784567</v>
+        <v>3.160150345005405</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.073729751111898</v>
+        <v>1.711398445270106</v>
       </c>
       <c r="C15">
-        <v>0.1374036989106884</v>
+        <v>0.06272368601990763</v>
       </c>
       <c r="D15">
-        <v>0.06025099576647541</v>
+        <v>0.1232092517148669</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.648781996594408</v>
+        <v>2.467371722195338</v>
       </c>
       <c r="G15">
-        <v>0.0007986298074231925</v>
+        <v>0.002537327199389964</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.582303436992959</v>
+        <v>1.166444794834121</v>
       </c>
       <c r="L15">
-        <v>0.6291431058983363</v>
+        <v>0.3603048382693004</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.117056162577654</v>
+        <v>3.159623588464612</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.872528780980247</v>
+        <v>1.666098035851121</v>
       </c>
       <c r="C16">
-        <v>0.1294780646508116</v>
+        <v>0.06044738984809328</v>
       </c>
       <c r="D16">
-        <v>0.06183215862211711</v>
+        <v>0.1234767041189571</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.522869515554589</v>
+        <v>2.441241648799362</v>
       </c>
       <c r="G16">
-        <v>0.0008036372349403682</v>
+        <v>0.002540086534323181</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.407796032592302</v>
+        <v>1.125507016504088</v>
       </c>
       <c r="L16">
-        <v>0.5884911212415176</v>
+        <v>0.3512170354602802</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.099236343884456</v>
+        <v>3.156823637933854</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.750629754100373</v>
+        <v>1.63855386072197</v>
       </c>
       <c r="C17">
-        <v>0.1246605433467494</v>
+        <v>0.05904553288958425</v>
       </c>
       <c r="D17">
-        <v>0.06280699394384825</v>
+        <v>0.1236422489952016</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.447162382406972</v>
+        <v>2.425495510664049</v>
       </c>
       <c r="G17">
-        <v>0.0008067301850253407</v>
+        <v>0.002541816525370155</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.302007434168104</v>
+        <v>1.100557381378877</v>
       </c>
       <c r="L17">
-        <v>0.5638905864682044</v>
+        <v>0.3456941106902036</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.089200888584784</v>
+        <v>3.155300766647116</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.681040463277157</v>
+        <v>1.622801505766915</v>
       </c>
       <c r="C18">
-        <v>0.1219044103908118</v>
+        <v>0.05823721173537422</v>
       </c>
       <c r="D18">
-        <v>0.06336945051123699</v>
+        <v>0.1237380061312496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.404148291626399</v>
+        <v>2.416542864107754</v>
       </c>
       <c r="G18">
-        <v>0.0008085174819325125</v>
+        <v>0.002542825287083378</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.241592186621347</v>
+        <v>1.086267260912109</v>
       </c>
       <c r="L18">
-        <v>0.5498568111931093</v>
+        <v>0.3425365865015522</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.083742205635332</v>
+        <v>3.154496315176218</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.65756514167191</v>
+        <v>1.61748352981715</v>
       </c>
       <c r="C19">
-        <v>0.1209736228280747</v>
+        <v>0.05796318121892341</v>
       </c>
       <c r="D19">
-        <v>0.06356018863714752</v>
+        <v>0.1237705205536717</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.389672513874388</v>
+        <v>2.413529516255011</v>
       </c>
       <c r="G19">
-        <v>0.0008091241104907409</v>
+        <v>0.002543169195822204</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.2212076709109</v>
+        <v>1.081439205103692</v>
       </c>
       <c r="L19">
-        <v>0.5451243334980802</v>
+        <v>0.3414707817300808</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.081946368448499</v>
+        <v>3.154236203672653</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.763551049656257</v>
+        <v>1.641476633738193</v>
       </c>
       <c r="C20">
-        <v>0.1251718120609269</v>
+        <v>0.05919497060627066</v>
       </c>
       <c r="D20">
-        <v>0.06270303876268102</v>
+        <v>0.1236245705487509</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.455165874618132</v>
+        <v>2.427160934242721</v>
       </c>
       <c r="G20">
-        <v>0.0008064000873333601</v>
+        <v>0.002541630946211064</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.313223408886813</v>
+        <v>1.103207073554785</v>
       </c>
       <c r="L20">
-        <v>0.5664971850434597</v>
+        <v>0.346280055937342</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.09023638980976</v>
+        <v>3.155455479845102</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.126182410620913</v>
+        <v>1.723170335636496</v>
       </c>
       <c r="C21">
-        <v>0.1394651066272559</v>
+        <v>0.06330971842109534</v>
       </c>
       <c r="D21">
-        <v>0.05984429013539838</v>
+        <v>0.1231406562521222</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.68179384319842</v>
+        <v>2.474205890425509</v>
       </c>
       <c r="G21">
-        <v>0.0007973430083133966</v>
+        <v>0.002536626274308514</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.627777924045034</v>
+        <v>1.17706506668921</v>
       </c>
       <c r="L21">
-        <v>0.6397503897348003</v>
+        <v>0.3626672918673393</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.121947649827604</v>
+        <v>3.160406811894603</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.368707833566589</v>
+        <v>1.77736916496076</v>
       </c>
       <c r="C22">
-        <v>0.1489739520804392</v>
+        <v>0.06598141006804781</v>
       </c>
       <c r="D22">
-        <v>0.05799215277808401</v>
+        <v>0.122829214489391</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.835382358418229</v>
+        <v>2.505883594346244</v>
       </c>
       <c r="G22">
-        <v>0.000791485008353418</v>
+        <v>0.002533476829619233</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.837945883429512</v>
+        <v>1.225875351910389</v>
       </c>
       <c r="L22">
-        <v>0.6888438559648478</v>
+        <v>0.3735485523019122</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.145817811142223</v>
+        <v>3.164281890062853</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.238717402267923</v>
+        <v>1.748368219892711</v>
       </c>
       <c r="C23">
-        <v>0.1438817290558774</v>
+        <v>0.06455706452130983</v>
       </c>
       <c r="D23">
-        <v>0.05897915359276951</v>
+        <v>0.1229949946533324</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.752869648646737</v>
+        <v>2.488891217314716</v>
       </c>
       <c r="G23">
-        <v>0.0007946065775908683</v>
+        <v>0.002535146675549111</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.725316853607296</v>
+        <v>1.199774828943276</v>
       </c>
       <c r="L23">
-        <v>0.6625206018426439</v>
+        <v>0.3677252987585433</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.132771745017465</v>
+        <v>3.162155077804641</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.757707808370924</v>
+        <v>1.640154989065309</v>
       </c>
       <c r="C24">
-        <v>0.1249406257298062</v>
+        <v>0.05912741721638781</v>
       </c>
       <c r="D24">
-        <v>0.06275003064249773</v>
+        <v>0.1236325611574909</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.451545912273488</v>
+        <v>2.426407684735722</v>
       </c>
       <c r="G24">
-        <v>0.0008065492960006677</v>
+        <v>0.002541714802235974</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.308151416200559</v>
+        <v>1.102008980315702</v>
       </c>
       <c r="L24">
-        <v>0.5653184030642535</v>
+        <v>0.346015095038041</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.089767275294477</v>
+        <v>3.155385312655383</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.258495320998065</v>
+        <v>1.52688072056867</v>
       </c>
       <c r="C25">
-        <v>0.1050586859547025</v>
+        <v>0.0531935788532536</v>
       </c>
       <c r="D25">
-        <v>0.06688469513982387</v>
+        <v>0.1243409245502765</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.146467219281575</v>
+        <v>2.362987034436017</v>
       </c>
       <c r="G25">
-        <v>0.0008197551883991601</v>
+        <v>0.002549324467760788</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.874331582452982</v>
+        <v>0.9988538513990477</v>
       </c>
       <c r="L25">
-        <v>0.4648121219539973</v>
+        <v>0.3233272813683072</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.055204331799786</v>
+        <v>3.150813587003128</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_143/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.446407857441102</v>
+        <v>1.903772272782049</v>
       </c>
       <c r="C2">
-        <v>0.04875525018707094</v>
+        <v>0.09072655747709035</v>
       </c>
       <c r="D2">
-        <v>0.1248802924412242</v>
+        <v>0.06998619140577667</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.319677052181873</v>
+        <v>1.935502739672899</v>
       </c>
       <c r="G2">
-        <v>0.002555383951192388</v>
+        <v>0.0008298179199877404</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9248430034724322</v>
+        <v>1.565314726397219</v>
       </c>
       <c r="L2">
-        <v>0.3072403409413056</v>
+        <v>0.393666143460635</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.149778894070607</v>
+        <v>2.038298899279155</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.393681655594889</v>
+        <v>1.669633462076519</v>
       </c>
       <c r="C3">
-        <v>0.04570271063329301</v>
+        <v>0.08113413464982955</v>
       </c>
       <c r="D3">
-        <v>0.1252569564732422</v>
+        <v>0.07212408389981206</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.292421660901397</v>
+        <v>1.799540279692266</v>
       </c>
       <c r="G3">
-        <v>0.002559777865054426</v>
+        <v>0.0008368758699373693</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8758793560311631</v>
+        <v>1.360866426986718</v>
       </c>
       <c r="L3">
-        <v>0.2967189422946461</v>
+        <v>0.3468505995448794</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.150523909750476</v>
+        <v>2.031469211374983</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.3621963007528</v>
+        <v>1.528444438331888</v>
       </c>
       <c r="C4">
-        <v>0.04380598120572898</v>
+        <v>0.07528322356594686</v>
       </c>
       <c r="D4">
-        <v>0.1254937250592345</v>
+        <v>0.07345473024038363</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.276716048482683</v>
+        <v>1.719071698699551</v>
       </c>
       <c r="G4">
-        <v>0.002562618322567956</v>
+        <v>0.0008413349696429589</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8463997843549862</v>
+        <v>1.237344127532793</v>
       </c>
       <c r="L4">
-        <v>0.2904453072818853</v>
+        <v>0.3186845222084145</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.15169223227474</v>
+        <v>2.029352111425482</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.349588914503272</v>
+        <v>1.471486080564574</v>
       </c>
       <c r="C5">
-        <v>0.04302734922904961</v>
+        <v>0.07290592834660004</v>
       </c>
       <c r="D5">
-        <v>0.1255915916881003</v>
+        <v>0.07400153516560071</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.27057424750241</v>
+        <v>1.686977228689955</v>
       </c>
       <c r="G5">
-        <v>0.002563811801801901</v>
+        <v>0.0008431847246106227</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8345331405825505</v>
+        <v>1.187453017311981</v>
       </c>
       <c r="L5">
-        <v>0.2879355311150675</v>
+        <v>0.3073369673972763</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.152346779376458</v>
+        <v>2.028983330931453</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.347508936042573</v>
+        <v>1.462061113125571</v>
       </c>
       <c r="C6">
-        <v>0.04289771223904637</v>
+        <v>0.07251152584747445</v>
       </c>
       <c r="D6">
-        <v>0.1256079257999758</v>
+        <v>0.07409260811302243</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.269569997272086</v>
+        <v>1.681688384598985</v>
       </c>
       <c r="G6">
-        <v>0.002564012154224744</v>
+        <v>0.0008434938764964212</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8325715312619195</v>
+        <v>1.179193850931767</v>
       </c>
       <c r="L6">
-        <v>0.2875216064793875</v>
+        <v>0.305460163210995</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.152466235131286</v>
+        <v>2.028951144595666</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.362025370034075</v>
+        <v>1.527674029000821</v>
       </c>
       <c r="C7">
-        <v>0.04379550344730632</v>
+        <v>0.07525113770957859</v>
       </c>
       <c r="D7">
-        <v>0.1254950393298255</v>
+        <v>0.07346208614125782</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.276632172527343</v>
+        <v>1.71863611560353</v>
       </c>
       <c r="G7">
-        <v>0.002562634272524848</v>
+        <v>0.0008413597826261581</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8462391539221983</v>
+        <v>1.236669552201391</v>
       </c>
       <c r="L7">
-        <v>0.2904112703134132</v>
+        <v>0.3185309766484465</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.151700337636854</v>
+        <v>2.02934517362705</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.428043181316554</v>
+        <v>1.822463527662904</v>
       </c>
       <c r="C8">
-        <v>0.04770736349097859</v>
+        <v>0.08740927900192474</v>
       </c>
       <c r="D8">
-        <v>0.1250090254620337</v>
+        <v>0.07071962602926707</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.310065465743264</v>
+        <v>1.887959719051722</v>
       </c>
       <c r="G8">
-        <v>0.002556869451732701</v>
+        <v>0.0008322261289322778</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9078388002073439</v>
+        <v>1.494366178668969</v>
       </c>
       <c r="L8">
-        <v>0.3035737637162867</v>
+        <v>0.3773944916180199</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.149888041283745</v>
+        <v>2.035495457813383</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.564579758614514</v>
+        <v>2.424409221893654</v>
       </c>
       <c r="C9">
-        <v>0.05520296890088616</v>
+        <v>0.1116980623895643</v>
       </c>
       <c r="D9">
-        <v>0.1240995486631338</v>
+        <v>0.06548305020782497</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.383822121437589</v>
+        <v>2.246893861369443</v>
       </c>
       <c r="G9">
-        <v>0.002546690563854503</v>
+        <v>0.000815257860556899</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.033297824626231</v>
+        <v>2.018631274527365</v>
       </c>
       <c r="L9">
-        <v>0.3308730733397738</v>
+        <v>0.4981694984252698</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.151990310222658</v>
+        <v>2.06541890091323</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.66925326720542</v>
+        <v>2.88651205569721</v>
       </c>
       <c r="C10">
-        <v>0.06060708034839024</v>
+        <v>0.1300298943517504</v>
       </c>
       <c r="D10">
-        <v>0.1234578875293941</v>
+        <v>0.06172116273624617</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.443052514138344</v>
+        <v>2.53158254057702</v>
       </c>
       <c r="G10">
-        <v>0.002539890986359187</v>
+        <v>0.0008032853933929216</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.128362118645725</v>
+        <v>2.419928123776828</v>
       </c>
       <c r="L10">
-        <v>0.3518498333712472</v>
+        <v>0.5913145073744914</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.157007100923181</v>
+        <v>2.100425069334534</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.717829692625628</v>
+        <v>3.102376597974171</v>
       </c>
       <c r="C11">
-        <v>0.06304411620199346</v>
+        <v>0.1385297601835305</v>
       </c>
       <c r="D11">
-        <v>0.1231717322876413</v>
+        <v>0.06002859867433941</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.471103236394839</v>
+        <v>2.666801981241719</v>
       </c>
       <c r="G11">
-        <v>0.002536943482880707</v>
+        <v>0.0007979261108123876</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.172247760886194</v>
+        <v>2.607140112414527</v>
       </c>
       <c r="L11">
-        <v>0.3615954565542978</v>
+        <v>0.6349357663953867</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.160048765877434</v>
+        <v>2.11971534960847</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.736362993197474</v>
+        <v>3.185056071864324</v>
       </c>
       <c r="C12">
-        <v>0.06396395630953577</v>
+        <v>0.1417766981429764</v>
       </c>
       <c r="D12">
-        <v>0.1230641989681853</v>
+        <v>0.05939043317562387</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.481885131951628</v>
+        <v>2.718935684579662</v>
       </c>
       <c r="G12">
-        <v>0.002535848163094223</v>
+        <v>0.000795907358274026</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.188958874148682</v>
+        <v>2.678810361700556</v>
       </c>
       <c r="L12">
-        <v>0.3653152811983631</v>
+        <v>0.6516606778724139</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.161310191307933</v>
+        <v>2.12755493796692</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.732365350225109</v>
+        <v>3.167205811696135</v>
       </c>
       <c r="C13">
-        <v>0.06376598540882128</v>
+        <v>0.1410760684106123</v>
       </c>
       <c r="D13">
-        <v>0.1230873213557135</v>
+        <v>0.05952774862778831</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.479555945977154</v>
+        <v>2.707664598125916</v>
       </c>
       <c r="G13">
-        <v>0.002536083134889926</v>
+        <v>0.0007963416884908821</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.185355711919414</v>
+        <v>2.663338494068</v>
       </c>
       <c r="L13">
-        <v>0.3645128418089172</v>
+        <v>0.6480490254813986</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.161033639312137</v>
+        <v>2.125841886641695</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.719351660932602</v>
+        <v>3.109159167119458</v>
       </c>
       <c r="C14">
-        <v>0.06311985206622239</v>
+        <v>0.1387962905094611</v>
       </c>
       <c r="D14">
-        <v>0.1231628688606907</v>
+        <v>0.05997604028889114</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.471987065535018</v>
+        <v>2.671071774340106</v>
       </c>
       <c r="G14">
-        <v>0.002536852953155305</v>
+        <v>0.000797759823798495</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.173620736135291</v>
+        <v>2.613020236011806</v>
       </c>
       <c r="L14">
-        <v>0.3619008993056951</v>
+        <v>0.6363074320888273</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.160150345005405</v>
+        <v>2.12034928784567</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.711398445270106</v>
+        <v>3.073729751111728</v>
       </c>
       <c r="C15">
-        <v>0.06272368601990763</v>
+        <v>0.1374036989104752</v>
       </c>
       <c r="D15">
-        <v>0.1232092517148669</v>
+        <v>0.06025099576648962</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.467371722195338</v>
+        <v>2.648781996594408</v>
       </c>
       <c r="G15">
-        <v>0.002537327199389964</v>
+        <v>0.0007986298073083954</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.166444794834121</v>
+        <v>2.58230343699293</v>
       </c>
       <c r="L15">
-        <v>0.3603048382693004</v>
+        <v>0.6291431058982369</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.159623588464612</v>
+        <v>2.117056162577626</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.666098035851121</v>
+        <v>2.872528780980019</v>
       </c>
       <c r="C16">
-        <v>0.06044738984809328</v>
+        <v>0.1294780646507974</v>
       </c>
       <c r="D16">
-        <v>0.1234767041189571</v>
+        <v>0.06183215862199987</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.441241648799362</v>
+        <v>2.522869515554603</v>
       </c>
       <c r="G16">
-        <v>0.002540086534323181</v>
+        <v>0.0008036372349400356</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.125507016504088</v>
+        <v>2.407796032592387</v>
       </c>
       <c r="L16">
-        <v>0.3512170354602802</v>
+        <v>0.5884911212415176</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.156823637933854</v>
+        <v>2.099236343884471</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.63855386072197</v>
+        <v>2.750629754100089</v>
       </c>
       <c r="C17">
-        <v>0.05904553288958425</v>
+        <v>0.1246605433471899</v>
       </c>
       <c r="D17">
-        <v>0.1236422489952016</v>
+        <v>0.06280699394383937</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.425495510664049</v>
+        <v>2.447162382407001</v>
       </c>
       <c r="G17">
-        <v>0.002541816525370155</v>
+        <v>0.0008067301849670959</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.100557381378877</v>
+        <v>2.302007434168075</v>
       </c>
       <c r="L17">
-        <v>0.3456941106902036</v>
+        <v>0.5638905864681334</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.155300766647116</v>
+        <v>2.089200888584799</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.622801505766915</v>
+        <v>2.681040463277213</v>
       </c>
       <c r="C18">
-        <v>0.05823721173537422</v>
+        <v>0.121904410390357</v>
       </c>
       <c r="D18">
-        <v>0.1237380061312496</v>
+        <v>0.06336945051146792</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.416542864107754</v>
+        <v>2.404148291626399</v>
       </c>
       <c r="G18">
-        <v>0.002542825287083378</v>
+        <v>0.0008085174818746954</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.086267260912109</v>
+        <v>2.241592186621403</v>
       </c>
       <c r="L18">
-        <v>0.3425365865015522</v>
+        <v>0.5498568111931945</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.154496315176218</v>
+        <v>2.083742205635332</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.61748352981715</v>
+        <v>2.657565141672023</v>
       </c>
       <c r="C19">
-        <v>0.05796318121892341</v>
+        <v>0.1209736228280889</v>
       </c>
       <c r="D19">
-        <v>0.1237705205536717</v>
+        <v>0.0635601886373518</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.413529516255011</v>
+        <v>2.389672513874388</v>
       </c>
       <c r="G19">
-        <v>0.002543169195822204</v>
+        <v>0.0008091241104883172</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.081439205103692</v>
+        <v>2.221207670910871</v>
       </c>
       <c r="L19">
-        <v>0.3414707817300808</v>
+        <v>0.5451243334980518</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.154236203672653</v>
+        <v>2.081946368448499</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.641476633738193</v>
+        <v>2.763551049656087</v>
       </c>
       <c r="C20">
-        <v>0.05919497060627066</v>
+        <v>0.12517181206114</v>
       </c>
       <c r="D20">
-        <v>0.1236245705487509</v>
+        <v>0.06270303876303274</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.427160934242721</v>
+        <v>2.455165874618118</v>
       </c>
       <c r="G20">
-        <v>0.002541630946211064</v>
+        <v>0.0008064000873330817</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.103207073554785</v>
+        <v>2.31322340888687</v>
       </c>
       <c r="L20">
-        <v>0.346280055937342</v>
+        <v>0.5664971850435734</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.155455479845102</v>
+        <v>2.09023638980976</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.723170335636496</v>
+        <v>3.1261824106208</v>
       </c>
       <c r="C21">
-        <v>0.06330971842109534</v>
+        <v>0.1394651066270285</v>
       </c>
       <c r="D21">
-        <v>0.1231406562521222</v>
+        <v>0.05984429013516745</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.474205890425509</v>
+        <v>2.68179384319842</v>
       </c>
       <c r="G21">
-        <v>0.002536626274308514</v>
+        <v>0.0007973430083732783</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.17706506668921</v>
+        <v>2.627777924045034</v>
       </c>
       <c r="L21">
-        <v>0.3626672918673393</v>
+        <v>0.6397503897348145</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.160406811894603</v>
+        <v>2.121947649827661</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.77736916496076</v>
+        <v>3.368707833566532</v>
       </c>
       <c r="C22">
-        <v>0.06598141006804781</v>
+        <v>0.1489739520804534</v>
       </c>
       <c r="D22">
-        <v>0.122829214489391</v>
+        <v>0.05799215277806802</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.505883594346244</v>
+        <v>2.835382358418229</v>
       </c>
       <c r="G22">
-        <v>0.002533476829619233</v>
+        <v>0.0007914850083499509</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.225875351910389</v>
+        <v>2.837945883429541</v>
       </c>
       <c r="L22">
-        <v>0.3735485523019122</v>
+        <v>0.6888438559648193</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.164281890062853</v>
+        <v>2.145817811142194</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.748368219892711</v>
+        <v>3.238717402267866</v>
       </c>
       <c r="C23">
-        <v>0.06455706452130983</v>
+        <v>0.1438817290556358</v>
       </c>
       <c r="D23">
-        <v>0.1229949946533324</v>
+        <v>0.05897915359262207</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.488891217314716</v>
+        <v>2.752869648646822</v>
       </c>
       <c r="G23">
-        <v>0.002535146675549111</v>
+        <v>0.0007946065777041818</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.199774828943276</v>
+        <v>2.725316853607382</v>
       </c>
       <c r="L23">
-        <v>0.3677252987585433</v>
+        <v>0.6625206018428145</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.162155077804641</v>
+        <v>2.132771745017408</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.640154989065309</v>
+        <v>2.757707808371038</v>
       </c>
       <c r="C24">
-        <v>0.05912741721638781</v>
+        <v>0.1249406257298205</v>
       </c>
       <c r="D24">
-        <v>0.1236325611574909</v>
+        <v>0.06275003064260964</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.426407684735722</v>
+        <v>2.451545912273431</v>
       </c>
       <c r="G24">
-        <v>0.002541714802235974</v>
+        <v>0.0008065492960561738</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.102008980315702</v>
+        <v>2.308151416200559</v>
       </c>
       <c r="L24">
-        <v>0.346015095038041</v>
+        <v>0.5653184030642109</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.155385312655383</v>
+        <v>2.08976727529442</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.52688072056867</v>
+        <v>2.258495320998293</v>
       </c>
       <c r="C25">
-        <v>0.0531935788532536</v>
+        <v>0.1050586859547025</v>
       </c>
       <c r="D25">
-        <v>0.1243409245502765</v>
+        <v>0.06688469513970929</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.362987034436017</v>
+        <v>2.146467219281575</v>
       </c>
       <c r="G25">
-        <v>0.002549324467760788</v>
+        <v>0.000819755188293581</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9988538513990477</v>
+        <v>1.87433158245301</v>
       </c>
       <c r="L25">
-        <v>0.3233272813683072</v>
+        <v>0.4648121219540258</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.150813587003128</v>
+        <v>2.055204331799771</v>
       </c>
       <c r="O25">
         <v>0</v>
